--- a/Data Sheet with Fluke Area and Chord Length.xlsx
+++ b/Data Sheet with Fluke Area and Chord Length.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13820"/>
+    <workbookView xWindow="0" yWindow="2500" windowWidth="28800" windowHeight="13820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
